--- a/slides/data/journal_1875.xlsx
+++ b/slides/data/journal_1875.xlsx
@@ -8,6 +8,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C184">
+      <text>
+        <t xml:space="preserve">not baffling... faffling? falling? letters 1, 3, and 4 are the same.
+	-Tiegan Paulson</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55465,6 +55481,7 @@
       <formula1>"write,read,read and write,no letter"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>